--- a/Config/Equipment.xlsx
+++ b/Config/Equipment.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,19 +142,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Material2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -565,7 +557,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,28 +664,28 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -707,22 +699,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -745,22 +728,13 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" s="1">
         <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="1">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2</v>
       </c>
       <c r="J5" s="1">
         <v>3</v>

--- a/Config/Equipment.xlsx
+++ b/Config/Equipment.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,10 +139,6 @@
   </si>
   <si>
     <t>Material1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,7 +553,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -664,28 +660,28 @@
         <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -699,7 +695,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -728,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>

--- a/Config/Equipment.xlsx
+++ b/Config/Equipment.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>屠噜刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>材料1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,14 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软噜甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精钢不坏的宝甲，可以抵挡一切伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttrType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -175,6 +159,34 @@
   </si>
   <si>
     <t>IncreaseAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火把</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗布衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破破烂烂的衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,7 +565,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -581,22 +593,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
@@ -610,78 +622,78 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -689,28 +701,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4" s="1">
-        <v>3</v>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
-        <v>20</v>
-      </c>
-      <c r="L4" s="1">
-        <v>10</v>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -718,13 +730,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -738,8 +750,8 @@
       <c r="K5" s="1">
         <v>10</v>
       </c>
-      <c r="L5" s="1">
-        <v>10</v>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
